--- a/data/trans_orig/IP19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6940156C-72DB-431C-9FB6-B675789C1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{977E1FF8-C33A-46A1-812D-7668BCCC4AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DECFCC12-8C5F-420C-8089-2D9357916886}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1E4D26F-E336-4B47-B529-D9EDF1E45F01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -77,847 +77,817 @@
     <t>11,27%</t>
   </si>
   <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>98,34%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06A9345-B6C7-4D47-9ED3-60F001748AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E26D8-D726-4BFA-8646-E7A604D8E139}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2080,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD6C382-3D96-4A74-B05E-B693E3139588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD64C2B7-E325-4FC8-B864-64100B717737}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2359,13 +2329,13 @@
         <v>16214</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2374,13 +2344,13 @@
         <v>14200</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2389,13 +2359,13 @@
         <v>30414</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2380,13 @@
         <v>224699</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -2425,13 +2395,13 @@
         <v>206278</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>620</v>
@@ -2440,13 +2410,13 @@
         <v>430977</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2484,13 @@
         <v>2774</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2529,13 +2499,13 @@
         <v>1516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2544,13 +2514,13 @@
         <v>4290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2535,13 @@
         <v>79351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -2580,28 +2550,28 @@
         <v>84032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
       </c>
       <c r="N11" s="7">
-        <v>163384</v>
+        <v>163383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2613,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2669,13 +2639,13 @@
         <v>20978</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2684,13 +2654,13 @@
         <v>22220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -2699,13 +2669,13 @@
         <v>43199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2690,13 @@
         <v>345024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>472</v>
@@ -2735,13 +2705,13 @@
         <v>331771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
@@ -2750,13 +2720,13 @@
         <v>676793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440226FF-9695-426B-B37C-A1863BE7A82A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E255D11F-7C53-4EB8-8B2A-53B120C270FB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2925,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2970,13 +2940,13 @@
         <v>1900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2985,13 +2955,13 @@
         <v>2626</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2976,13 @@
         <v>27414</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3021,13 +2991,13 @@
         <v>20821</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -3036,13 +3006,13 @@
         <v>48237</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3080,13 @@
         <v>11373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3128,10 +3098,10 @@
         <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3140,13 +3110,13 @@
         <v>25563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3131,13 @@
         <v>241432</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -3179,10 +3149,10 @@
         <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>681</v>
@@ -3191,13 +3161,13 @@
         <v>479982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3235,13 @@
         <v>2345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3280,13 +3250,13 @@
         <v>3091</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3295,13 +3265,13 @@
         <v>5436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3286,13 @@
         <v>85353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -3331,13 +3301,13 @@
         <v>84649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>240</v>
@@ -3346,13 +3316,13 @@
         <v>170001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3390,13 @@
         <v>14445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3435,13 +3405,13 @@
         <v>19181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3450,13 +3420,13 @@
         <v>33626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3441,13 @@
         <v>354199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -3486,13 +3456,13 @@
         <v>344020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>991</v>
@@ -3501,13 +3471,13 @@
         <v>698219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3626441-2A18-4551-852B-103E681C2CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC90247-49B3-4A4E-9096-411D69C962CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3676,13 @@
         <v>1176</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3721,13 +3691,13 @@
         <v>666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3736,13 +3706,13 @@
         <v>1843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3727,13 @@
         <v>23253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3772,13 +3742,13 @@
         <v>28473</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -3787,13 +3757,13 @@
         <v>51725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3831,13 @@
         <v>10234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3876,13 +3846,13 @@
         <v>13051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3891,13 +3861,13 @@
         <v>23285</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3882,13 @@
         <v>300497</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -3927,13 +3897,13 @@
         <v>255398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>707</v>
@@ -3942,13 +3912,13 @@
         <v>555896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +3986,13 @@
         <v>3272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4031,13 +4001,13 @@
         <v>4447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4046,13 +4016,13 @@
         <v>7719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4037,13 @@
         <v>126371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>143</v>
@@ -4082,13 +4052,13 @@
         <v>97988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>306</v>
@@ -4097,13 +4067,13 @@
         <v>224359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4141,13 @@
         <v>14682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4186,13 +4156,13 @@
         <v>18165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -4201,13 +4171,13 @@
         <v>32847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4192,13 @@
         <v>450121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -4237,13 +4207,13 @@
         <v>381859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>1078</v>
@@ -4252,13 +4222,13 @@
         <v>831979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977E1FF8-C33A-46A1-812D-7668BCCC4AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5241F2-20E0-42B4-AE83-132C7D05264E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1E4D26F-E336-4B47-B529-D9EDF1E45F01}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A18FC3F2-E5E0-407C-9822-EA9C271F8658}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>5,24%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
     <t>88,73%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>94,76%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,757 +137,751 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
     <t>96,9%</t>
   </si>
   <si>
+    <t>93,89%</t>
+  </si>
+  <si>
     <t>98,75%</t>
   </si>
   <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>93,95%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E26D8-D726-4BFA-8646-E7A604D8E139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B422013-23E6-48EE-82A2-1059D5E8CADE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1417,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>4835</v>
+        <v>2553</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1432,10 +1426,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2553</v>
+        <v>4835</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1468,10 +1462,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>38056</v>
+        <v>44373</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1483,10 +1477,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7">
-        <v>44373</v>
+        <v>38056</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1519,25 +1513,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1572,10 +1566,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>16461</v>
+        <v>13934</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1587,10 +1581,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>13934</v>
+        <v>16461</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1623,10 +1617,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D8" s="7">
-        <v>229262</v>
+        <v>214388</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1638,10 +1632,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="I8" s="7">
-        <v>214388</v>
+        <v>229262</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1674,25 +1668,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1730,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4323</v>
+        <v>4032</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1745,7 +1739,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4032</v>
+        <v>4323</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1781,7 +1775,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="7">
-        <v>68794</v>
+        <v>71651</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1796,7 +1790,7 @@
         <v>103</v>
       </c>
       <c r="I11" s="7">
-        <v>71651</v>
+        <v>68794</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1832,7 +1826,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1847,7 +1841,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1882,10 +1876,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>25619</v>
+        <v>20519</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1897,19 +1891,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>20519</v>
+        <v>25619</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -1918,13 +1912,13 @@
         <v>46138</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,34 +1927,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>492</v>
+      </c>
+      <c r="D14" s="7">
+        <v>330411</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>507</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>336112</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>492</v>
-      </c>
-      <c r="I14" s="7">
-        <v>330411</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>999</v>
@@ -1969,13 +1963,13 @@
         <v>666523</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,25 +1978,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2031,7 +2025,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD64C2B7-E325-4FC8-B864-64100B717737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD06E4C-FDDF-4C38-B2A6-0A44157CFDB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2067,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2168,34 +2162,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6504</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1990</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6504</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2204,13 +2198,13 @@
         <v>8495</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,34 +2213,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41460</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="7">
         <v>56</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>40973</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="7">
-        <v>59</v>
-      </c>
-      <c r="I5" s="7">
-        <v>41460</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -2255,13 +2249,13 @@
         <v>82433</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,25 +2264,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2323,34 +2317,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14200</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="7">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>16214</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="7">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14200</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2359,13 +2353,13 @@
         <v>30414</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2368,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="D8" s="7">
-        <v>224699</v>
+        <v>206278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>115</v>
@@ -2389,10 +2383,10 @@
         <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>206278</v>
+        <v>224699</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>117</v>
@@ -2425,25 +2419,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>220478</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220478</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2774</v>
+        <v>1516</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>123</v>
@@ -2493,10 +2487,10 @@
         <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1516</v>
+        <v>2774</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>126</v>
@@ -2505,7 +2499,7 @@
         <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2514,13 +2508,13 @@
         <v>4290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,34 +2523,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7">
+        <v>84032</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>114</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>79351</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="7">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7">
-        <v>84032</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -2565,13 +2559,13 @@
         <v>163383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,25 +2574,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2633,34 +2627,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>22220</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>20978</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22220</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -2669,13 +2663,13 @@
         <v>43199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,40 +2678,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>472</v>
+      </c>
+      <c r="D14" s="7">
+        <v>331771</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="7">
         <v>495</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>345024</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="7">
-        <v>472</v>
-      </c>
-      <c r="I14" s="7">
-        <v>331771</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
       </c>
       <c r="N14" s="7">
-        <v>676793</v>
+        <v>676794</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>154</v>
@@ -2735,25 +2729,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>504</v>
+      </c>
+      <c r="D15" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366002</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>504</v>
-      </c>
-      <c r="I15" s="7">
-        <v>353991</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2768,7 +2762,7 @@
         <v>1028</v>
       </c>
       <c r="N15" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E255D11F-7C53-4EB8-8B2A-53B120C270FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC728B2-F260-4452-B640-A65BD8D56282}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2919,31 +2913,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>727</v>
+        <v>1900</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1900</v>
+        <v>727</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>162</v>
@@ -2970,10 +2964,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>27414</v>
+        <v>20821</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>166</v>
@@ -2982,22 +2976,22 @@
         <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>20821</v>
+        <v>27414</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -3021,25 +3015,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22721</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>34</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22721</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,34 +3068,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14190</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11373</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="7">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14190</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3125,31 +3119,31 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>349</v>
+      </c>
+      <c r="D8" s="7">
+        <v>238550</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7">
         <v>332</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>241432</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H8" s="7">
-        <v>349</v>
-      </c>
-      <c r="I8" s="7">
-        <v>238550</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>184</v>
@@ -3176,25 +3170,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252805</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +3223,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2345</v>
+        <v>3091</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>188</v>
@@ -3244,10 +3238,10 @@
         <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>3091</v>
+        <v>2345</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>191</v>
@@ -3271,7 +3265,7 @@
         <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,31 +3277,31 @@
         <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>85353</v>
+        <v>84649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
       </c>
       <c r="I11" s="7">
-        <v>84649</v>
+        <v>85353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>240</v>
@@ -3316,13 +3310,13 @@
         <v>170001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,25 +3325,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7">
+        <v>87740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,34 +3378,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19181</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>14445</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19181</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3420,13 +3414,13 @@
         <v>33626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,34 +3429,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>500</v>
+      </c>
+      <c r="D14" s="7">
+        <v>344020</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="7">
         <v>491</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>354199</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="7">
-        <v>500</v>
-      </c>
-      <c r="I14" s="7">
-        <v>344020</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>991</v>
@@ -3471,13 +3465,13 @@
         <v>698219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,25 +3480,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>528</v>
+      </c>
+      <c r="D15" s="7">
+        <v>363201</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>511</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>368644</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>528</v>
-      </c>
-      <c r="I15" s="7">
-        <v>363201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,7 +3527,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC90247-49B3-4A4E-9096-411D69C962CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120B53A-4D8C-4DD7-88B8-5275E9642182}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3670,49 +3664,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>713</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>1176</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
       <c r="I4" s="7">
-        <v>666</v>
+        <v>1220</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1843</v>
+        <v>1933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,49 +3715,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29017</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
         <v>29</v>
       </c>
-      <c r="D5" s="7">
-        <v>23253</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>24264</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="7">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7">
-        <v>28473</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>51725</v>
+        <v>53281</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,25 +3766,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3805,7 +3799,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3825,49 +3819,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13268</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <v>10234</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>10825</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13051</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>23285</v>
+        <v>24093</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,25 +3870,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D8" s="7">
-        <v>300497</v>
+        <v>248559</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>244</v>
       </c>
       <c r="H8" s="7">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="I8" s="7">
-        <v>255398</v>
+        <v>312190</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>245</v>
@@ -3909,7 +3903,7 @@
         <v>707</v>
       </c>
       <c r="N8" s="7">
-        <v>555896</v>
+        <v>560749</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>248</v>
@@ -3927,25 +3921,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3960,7 +3954,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3980,49 +3974,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4399</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>3272</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>3563</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4447</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>7719</v>
+        <v>7962</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,49 +4025,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>143</v>
+      </c>
+      <c r="D11" s="7">
+        <v>95677</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="7">
         <v>163</v>
       </c>
-      <c r="D11" s="7">
-        <v>126371</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>132382</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="7">
-        <v>143</v>
-      </c>
-      <c r="I11" s="7">
-        <v>97988</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>306</v>
       </c>
       <c r="N11" s="7">
-        <v>224359</v>
+        <v>228059</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,25 +4076,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4115,7 +4109,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4135,49 +4129,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18379</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
-        <v>14682</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>15609</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18165</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>32847</v>
+        <v>33988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,49 +4180,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>528</v>
+      </c>
+      <c r="D14" s="7">
+        <v>373254</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="7">
         <v>550</v>
       </c>
-      <c r="D14" s="7">
-        <v>450121</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>468835</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="H14" s="7">
-        <v>528</v>
-      </c>
-      <c r="I14" s="7">
-        <v>381859</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>1078</v>
       </c>
       <c r="N14" s="7">
-        <v>831979</v>
+        <v>842088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,25 +4231,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4270,7 +4264,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4284,7 +4278,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
